--- a/Input/Dynamic data.xlsx
+++ b/Input/Dynamic data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SIVAGAMI\eclipse-workspace\Selenium\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7113725-A589-49A6-B3CA-0D8C12151F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF63974E-73D1-4BC1-8940-98E8FFBD0E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BCB12338-6E6B-4850-83C7-F6583BB5F281}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>MAA</t>
   </si>
@@ -45,9 +45,6 @@
     <t>DEL</t>
   </si>
   <si>
-    <t>BLR</t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
@@ -60,15 +57,9 @@
     <t>21</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
     <t>BOM</t>
   </si>
   <si>
-    <t>September 2024</t>
-  </si>
-  <si>
     <t>Business</t>
   </si>
   <si>
@@ -76,12 +67,42 @@
   </si>
   <si>
     <t>DXB</t>
+  </si>
+  <si>
+    <t>HYD</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Economy/Premium Economy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mmmm\ yyyy"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -120,8 +141,12 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,19 +461,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE2F53C-C0FC-40F8-AAEC-B21AFA82E63A}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D1" sqref="D1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -456,81 +482,126 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2">
+        <v>45536</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="D2" s="2">
+        <v>45537</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="D3" s="2">
+        <v>45538</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45539</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="2">
+        <v>45540</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
         <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
